--- a/customer_data.xlsx
+++ b/customer_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,169 +513,169 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Birgit</t>
+          <t>Cecilia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Karlsson</t>
+          <t>Andersson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1971-05-03</t>
+          <t>1962-03-19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+46 72-727 18 69</t>
+          <t>+46 73-111 29 36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>birgit.karlsson@live.com</t>
+          <t>cecilia.andersson@live.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bockabovägen No Number</t>
+          <t>Sandviken 4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>82291</t>
+          <t>78695</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alfta</t>
+          <t>Dala-Floda</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Ovanåker</t>
+          <t>Gagnef</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Printer</t>
+          <t>Thunderbolt Cable</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>6632.09</v>
+        <v>10337.02</v>
       </c>
       <c r="O2" t="n">
-        <v>26528.36</v>
+        <v>51685.10000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Birgit</t>
+          <t>Cecilia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karlsson</t>
+          <t>Andersson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1971-05-03</t>
+          <t>1962-03-19</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+46 72-727 18 69</t>
+          <t>+46 73-111 29 36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>birgit.karlsson@live.com</t>
+          <t>cecilia.andersson@live.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bockabovägen No Number</t>
+          <t>Sandviken 4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>82291</t>
+          <t>78695</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Alfta</t>
+          <t>Dala-Floda</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Ovanåker</t>
+          <t>Gagnef</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2022-10-15</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Whiteboard</t>
+          <t>MicroSD Card</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>1042.93</v>
+        <v>13606.34</v>
       </c>
       <c r="O3" t="n">
-        <v>2085.86</v>
+        <v>27212.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Cecilia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johannesson</t>
+          <t>Andersson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1966-10-05</t>
+          <t>1962-03-19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+46 76-290 51 19</t>
+          <t>+46 73-111 29 36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>lisa.johannesson@gmail.com</t>
+          <t>cecilia.andersson@live.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -685,68 +685,68 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Stormnäs 719</t>
+          <t>Sandviken 4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>82474</t>
+          <t>78695</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Delsbo</t>
+          <t>Dala-Floda</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hudiksvall</t>
+          <t>Gagnef</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2023-03-14</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>RAM</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1058.49</v>
+        <v>8309.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1058.49</v>
+        <v>8309.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Per</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Johannesson</t>
+          <t>Hansson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1966-10-05</t>
+          <t>1993-06-26</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+46 76-290 51 19</t>
+          <t>+46 70-489 61 82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>lisa.johannesson@gmail.com</t>
+          <t>per.hansson@hotmail.com</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -756,68 +756,68 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Stormnäs 719</t>
+          <t>Tallholmen 100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>82474</t>
+          <t>84193</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Delsbo</t>
+          <t>Östavall</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hudiksvall</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-04-14</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Mouse Pad</t>
+          <t>Case</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>11715.64</v>
+        <v>9350.27</v>
       </c>
       <c r="O5" t="n">
-        <v>23431.28</v>
+        <v>9350.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Per</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Johannesson</t>
+          <t>Hansson</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1966-10-05</t>
+          <t>1993-06-26</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+46 76-290 51 19</t>
+          <t>+46 70-489 61 82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>lisa.johannesson@gmail.com</t>
+          <t>per.hansson@hotmail.com</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -827,352 +827,352 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Stormnäs 719</t>
+          <t>Tallholmen 100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>82474</t>
+          <t>84193</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Delsbo</t>
+          <t>Östavall</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hudiksvall</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Surge Protector</t>
+          <t>Speaker System</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>12255.36</v>
+        <v>13509.97</v>
       </c>
       <c r="O6" t="n">
-        <v>49021.44</v>
+        <v>13509.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Henrik</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Johannesson</t>
+          <t>Pettersson</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1966-10-05</t>
+          <t>1951-02-02</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+46 76-290 51 19</t>
+          <t>+46 73-618 82 78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>lisa.johannesson@gmail.com</t>
+          <t>henrik.pettersson@gmail.com</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Stormnäs 719</t>
+          <t>Lillbo No Number</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>82474</t>
+          <t>82892</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Delsbo</t>
+          <t>Edsbyn</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hudiksvall</t>
+          <t>Ovanåker</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>NAS Storage</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>6554.36</v>
+        <v>3874.84</v>
       </c>
       <c r="O7" t="n">
-        <v>26217.44</v>
+        <v>19374.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Henrik</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Johannesson</t>
+          <t>Pettersson</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1966-10-05</t>
+          <t>1951-02-02</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+46 76-290 51 19</t>
+          <t>+46 73-618 82 78</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>lisa.johannesson@gmail.com</t>
+          <t>henrik.pettersson@gmail.com</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Stormnäs 719</t>
+          <t>Lillbo No Number</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>82474</t>
+          <t>82892</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Delsbo</t>
+          <t>Edsbyn</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hudiksvall</t>
+          <t>Ovanåker</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>MicroSD Card</t>
+          <t>Portable AC</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>13606.34</v>
+        <v>6018.4</v>
       </c>
       <c r="O8" t="n">
-        <v>27212.68</v>
+        <v>6018.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Inga</t>
+          <t>Gunilla</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hedlund</t>
+          <t>Karlsson</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1962-11-09</t>
+          <t>1965-01-30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+46 76-517 98 43</t>
+          <t>+46 70-574 69 75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>inga.hedlund@icloud.com</t>
+          <t>gunilla.karlsson@outlook.com</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Eneby-Näs Tallholmen 1</t>
+          <t>Tossabergsvägen No Number</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>59039</t>
+          <t>77012</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Kisa</t>
+          <t>Sunnansjö</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Kinda</t>
+          <t>Ludvika</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Headset</t>
+          <t>Projector Screen</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>11585.58</v>
+        <v>14288.64</v>
       </c>
       <c r="O9" t="n">
-        <v>57927.9</v>
+        <v>42865.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Inga</t>
+          <t>Gunilla</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hedlund</t>
+          <t>Karlsson</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1962-11-09</t>
+          <t>1965-01-30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+46 76-517 98 43</t>
+          <t>+46 70-574 69 75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>inga.hedlund@icloud.com</t>
+          <t>gunilla.karlsson@outlook.com</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Eneby-Näs Tallholmen 1</t>
+          <t>Tossabergsvägen No Number</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>59039</t>
+          <t>77012</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Kisa</t>
+          <t>Sunnansjö</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Kinda</t>
+          <t>Ludvika</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2022-01-29</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Office Desk</t>
+          <t>Hard Drive</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>9824.129999999999</v>
+        <v>11412.64</v>
       </c>
       <c r="O10" t="n">
-        <v>49120.64999999999</v>
+        <v>34237.92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Inga</t>
+          <t>Gustaf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hedlund</t>
+          <t>Jönsson</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1962-11-09</t>
+          <t>1948-02-28</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+46 76-517 98 43</t>
+          <t>+46 76-299 91 18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>inga.hedlund@icloud.com</t>
+          <t>gustaf.jonsson@icloud.com</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1182,68 +1182,68 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Eneby-Näs Tallholmen 1</t>
+          <t>Färdskär No Number</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>59039</t>
+          <t>72691</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Kisa</t>
+          <t>Skultuna</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Kinda</t>
+          <t>Västerås</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2023-03-18</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Headphones</t>
+          <t>Bluetooth Speaker</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>7967.28</v>
+        <v>1725.85</v>
       </c>
       <c r="O11" t="n">
-        <v>39836.4</v>
+        <v>1725.85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Inga</t>
+          <t>Gustaf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hedlund</t>
+          <t>Jönsson</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1962-11-09</t>
+          <t>1948-02-28</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+46 76-517 98 43</t>
+          <t>+46 76-299 91 18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>inga.hedlund@icloud.com</t>
+          <t>gustaf.jonsson@icloud.com</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1253,68 +1253,68 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Eneby-Näs Tallholmen 1</t>
+          <t>Färdskär No Number</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>59039</t>
+          <t>72691</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Kisa</t>
+          <t>Skultuna</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Kinda</t>
+          <t>Västerås</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Modem</t>
+          <t>Tripod</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>2943.42</v>
+        <v>182.72</v>
       </c>
       <c r="O12" t="n">
-        <v>5886.84</v>
+        <v>182.72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Karin</t>
+          <t>Gustaf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nyberg</t>
+          <t>Jönsson</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1959-09-09</t>
+          <t>1948-02-28</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+46 76-613 95 79</t>
+          <t>+46 76-299 91 18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>karin.nyberg@gmail.com</t>
+          <t>gustaf.jonsson@icloud.com</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1324,68 +1324,68 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Östra Haborshyttan 20</t>
+          <t>Färdskär No Number</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>68293</t>
+          <t>72691</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Nordmarkshyttan</t>
+          <t>Skultuna</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Filipstad</t>
+          <t>Västerås</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2023-01-23</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Mini PC</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>710.13</v>
+        <v>120.8</v>
       </c>
       <c r="O13" t="n">
-        <v>2130.39</v>
+        <v>362.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Karin</t>
+          <t>Gustaf</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nyberg</t>
+          <t>Jönsson</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1959-09-09</t>
+          <t>1948-02-28</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+46 76-613 95 79</t>
+          <t>+46 76-299 91 18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>karin.nyberg@gmail.com</t>
+          <t>gustaf.jonsson@icloud.com</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1395,68 +1395,68 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Östra Haborshyttan 20</t>
+          <t>Färdskär No Number</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>68293</t>
+          <t>72691</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Nordmarkshyttan</t>
+          <t>Skultuna</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Filipstad</t>
+          <t>Västerås</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-08-25</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Adjustable Lamp</t>
+          <t>USB Hub</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>14824.77</v>
+        <v>3553.64</v>
       </c>
       <c r="O14" t="n">
-        <v>74123.85000000001</v>
+        <v>10660.92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Karin</t>
+          <t>Gustaf</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nyberg</t>
+          <t>Jönsson</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1959-09-09</t>
+          <t>1948-02-28</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+46 76-613 95 79</t>
+          <t>+46 76-299 91 18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>karin.nyberg@gmail.com</t>
+          <t>gustaf.jonsson@icloud.com</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1466,494 +1466,494 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Östra Haborshyttan 20</t>
+          <t>Färdskär No Number</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>68293</t>
+          <t>72691</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Nordmarkshyttan</t>
+          <t>Skultuna</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Filipstad</t>
+          <t>Västerås</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-11-18</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>RAM</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>1058.49</v>
+        <v>3874.84</v>
       </c>
       <c r="O15" t="n">
-        <v>4233.96</v>
+        <v>15499.36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Marie</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nilsson</t>
+          <t>Johansson</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1993-05-11</t>
+          <t>1974-09-21</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+46 70-267 65 46</t>
+          <t>+46 76-330 74 51</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>marie.nilsson@gmail.com</t>
+          <t>erik.johansson@outlook.com</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Karljonsmyren No Number</t>
+          <t>Lövsjövägen No Number</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>78693</t>
+          <t>84197</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Nås</t>
+          <t>Erikslund</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Vansbro</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Smart Plug</t>
+          <t>Antivirus Subscription</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>5426.85</v>
+        <v>2533.98</v>
       </c>
       <c r="O16" t="n">
-        <v>21707.4</v>
+        <v>12669.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Marie</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nilsson</t>
+          <t>Johansson</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1993-05-11</t>
+          <t>1974-09-21</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+46 70-267 65 46</t>
+          <t>+46 76-330 74 51</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>marie.nilsson@gmail.com</t>
+          <t>erik.johansson@outlook.com</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Karljonsmyren No Number</t>
+          <t>Lövsjövägen No Number</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>78693</t>
+          <t>84197</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Nås</t>
+          <t>Erikslund</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Vansbro</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Trackpad</t>
+          <t>Portable AC</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>7456.58</v>
+        <v>6018.4</v>
       </c>
       <c r="O17" t="n">
-        <v>7456.58</v>
+        <v>24073.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Marie</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nilsson</t>
+          <t>Johansson</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1993-05-11</t>
+          <t>1974-09-21</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+46 70-267 65 46</t>
+          <t>+46 76-330 74 51</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>marie.nilsson@gmail.com</t>
+          <t>erik.johansson@outlook.com</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Karljonsmyren No Number</t>
+          <t>Lövsjövägen No Number</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>78693</t>
+          <t>84197</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Nås</t>
+          <t>Erikslund</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Vansbro</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2023-05-09</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Soundbar</t>
+          <t>Motherboard</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>2666.45</v>
+        <v>847.99</v>
       </c>
       <c r="O18" t="n">
-        <v>13332.25</v>
+        <v>4239.95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Marie</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nilsson</t>
+          <t>Johansson</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1993-05-11</t>
+          <t>1974-09-21</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+46 70-267 65 46</t>
+          <t>+46 76-330 74 51</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>marie.nilsson@gmail.com</t>
+          <t>erik.johansson@outlook.com</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Karljonsmyren No Number</t>
+          <t>Lövsjövägen No Number</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>78693</t>
+          <t>84197</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Nås</t>
+          <t>Erikslund</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Vansbro</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2022-09-11</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Smartwatch</t>
+          <t>HDMI Cable</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>3874.84</v>
+        <v>9252.01</v>
       </c>
       <c r="O19" t="n">
-        <v>11624.52</v>
+        <v>27756.03</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Marie</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nilsson</t>
+          <t>Johansson</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1993-05-11</t>
+          <t>1974-09-21</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+46 70-267 65 46</t>
+          <t>+46 76-330 74 51</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>marie.nilsson@gmail.com</t>
+          <t>erik.johansson@outlook.com</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Karljonsmyren No Number</t>
+          <t>Lövsjövägen No Number</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>78693</t>
+          <t>84197</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Nås</t>
+          <t>Erikslund</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Vansbro</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Mechanical Keyboard</t>
+          <t>Thunderbolt Cable</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.2</v>
+        <v>10337.02</v>
       </c>
       <c r="O20" t="n">
-        <v>12941</v>
+        <v>41348.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Laila</t>
+          <t>Nils</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bengtsson</t>
+          <t>Karlsson</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1971-05-23</t>
+          <t>2003-08-29</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>+46 73-344 29 33</t>
+          <t>+46 70-871 11 23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>laila.bengtsson@gmail.com</t>
+          <t>nils.karlsson@live.com</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Kårsbergsvägen No Number</t>
+          <t>Åbrotten 102</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>81395</t>
+          <t>74297</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Torsåker</t>
+          <t>Gräsö</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Hofors</t>
+          <t>Östhammar</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Surge Protector</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>12255.36</v>
+        <v>6067.16</v>
       </c>
       <c r="O21" t="n">
-        <v>36766.08</v>
+        <v>12134.32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Henrik</t>
+          <t>Nils</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Eriksson</t>
+          <t>Karlsson</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1998-07-16</t>
+          <t>2003-08-29</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+46 76-644 52 49</t>
+          <t>+46 70-871 11 23</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>henrik.eriksson@live.com</t>
+          <t>nils.karlsson@live.com</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1963,68 +1963,68 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Salsbro 238</t>
+          <t>Åbrotten 102</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>69495</t>
+          <t>74297</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Vretstorp</t>
+          <t>Gräsö</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hallsberg</t>
+          <t>Östhammar</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Monitor Stand</t>
+          <t>Ergonomic Chair</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>7508.44</v>
+        <v>10926.79</v>
       </c>
       <c r="O22" t="n">
-        <v>15016.88</v>
+        <v>10926.79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Henrik</t>
+          <t>Nils</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Eriksson</t>
+          <t>Karlsson</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1998-07-16</t>
+          <t>2003-08-29</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+46 76-644 52 49</t>
+          <t>+46 70-871 11 23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>henrik.eriksson@live.com</t>
+          <t>nils.karlsson@live.com</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2034,68 +2034,68 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Salsbro 238</t>
+          <t>Åbrotten 102</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>69495</t>
+          <t>74297</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Vretstorp</t>
+          <t>Gräsö</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Hallsberg</t>
+          <t>Östhammar</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2023-11-17</t>
+          <t>2023-04-17</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Ergonomic Chair</t>
+          <t>RAM</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="n">
-        <v>10926.79</v>
+        <v>1058.49</v>
       </c>
       <c r="O23" t="n">
-        <v>32780.37</v>
+        <v>5292.45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Henrik</t>
+          <t>Nils</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Eriksson</t>
+          <t>Karlsson</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1998-07-16</t>
+          <t>2003-08-29</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+46 76-644 52 49</t>
+          <t>+46 70-871 11 23</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>henrik.eriksson@live.com</t>
+          <t>nils.karlsson@live.com</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2105,68 +2105,68 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Salsbro 238</t>
+          <t>Åbrotten 102</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>69495</t>
+          <t>74297</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Vretstorp</t>
+          <t>Gräsö</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hallsberg</t>
+          <t>Östhammar</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-08-09</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Webcam</t>
+          <t>NAS Storage</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>5614.1</v>
+        <v>6554.36</v>
       </c>
       <c r="O24" t="n">
-        <v>5614.1</v>
+        <v>6554.36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kristin</t>
+          <t>Sören</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Holmqvist</t>
+          <t>Nilsson</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2005-09-06</t>
+          <t>1975-05-18</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>+46 76-103 97 13</t>
+          <t>+46 73-648 59 19</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>kristin.holmqvist@gmail.com</t>
+          <t>soren.nilsson@hotmail.com</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2176,68 +2176,68 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Boängen Rosenlund 139</t>
+          <t>Edsåker 232</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>71893</t>
+          <t>86193</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Frövi</t>
+          <t>Ljustorp</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Lindesberg</t>
+          <t>Timrå</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Adjustable Lamp</t>
+          <t>Mini PC</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>14824.77</v>
+        <v>710.13</v>
       </c>
       <c r="O25" t="n">
-        <v>59299.08</v>
+        <v>1420.26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Kristin</t>
+          <t>Sören</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Holmqvist</t>
+          <t>Nilsson</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2005-09-06</t>
+          <t>1975-05-18</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>+46 76-103 97 13</t>
+          <t>+46 73-648 59 19</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>kristin.holmqvist@gmail.com</t>
+          <t>soren.nilsson@hotmail.com</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2247,352 +2247,352 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Boängen Rosenlund 139</t>
+          <t>Edsåker 232</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>71893</t>
+          <t>86193</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Frövi</t>
+          <t>Ljustorp</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Lindesberg</t>
+          <t>Timrå</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Laptop Stand</t>
+          <t>Mini PC</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>5611</v>
+        <v>710.13</v>
       </c>
       <c r="O26" t="n">
-        <v>22444</v>
+        <v>2130.39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Katarina</t>
+          <t>Åsa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Arvidsson</t>
+          <t>Pettersson</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1981-05-04</t>
+          <t>1938-08-31</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+46 72-425 25 40</t>
+          <t>+46 72-165 23 80</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>katarina.arvidsson@hotmail.com</t>
+          <t>asa.pettersson@icloud.com</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>No Street No Number</t>
+          <t>Prästhållan No Number</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>82773</t>
+          <t>84292</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Kårböle</t>
+          <t>Sveg</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Ljusdal</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2022-01-23</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Bluetooth Speaker</t>
+          <t>Hard Drive</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.85</v>
+        <v>11412.64</v>
       </c>
       <c r="O27" t="n">
-        <v>5177.549999999999</v>
+        <v>45650.56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Katarina</t>
+          <t>Åsa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Arvidsson</t>
+          <t>Pettersson</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1981-05-04</t>
+          <t>1938-08-31</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+46 72-425 25 40</t>
+          <t>+46 72-165 23 80</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>katarina.arvidsson@hotmail.com</t>
+          <t>asa.pettersson@icloud.com</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>No Street No Number</t>
+          <t>Prästhållan No Number</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>82773</t>
+          <t>84292</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Kårböle</t>
+          <t>Sveg</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Ljusdal</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2023-03-03</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Server Rack</t>
+          <t>Projector Screen</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>3710.23</v>
+        <v>14288.64</v>
       </c>
       <c r="O28" t="n">
-        <v>7420.46</v>
+        <v>14288.64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Katarina</t>
+          <t>Åsa</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Arvidsson</t>
+          <t>Pettersson</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1981-05-04</t>
+          <t>1938-08-31</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>+46 72-425 25 40</t>
+          <t>+46 72-165 23 80</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>katarina.arvidsson@hotmail.com</t>
+          <t>asa.pettersson@icloud.com</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>No Street No Number</t>
+          <t>Prästhållan No Number</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>82773</t>
+          <t>84292</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Kårböle</t>
+          <t>Sveg</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Ljusdal</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Router</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>4771.09</v>
+        <v>9829.09</v>
       </c>
       <c r="O29" t="n">
-        <v>19084.36</v>
+        <v>9829.09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Katarina</t>
+          <t>Åsa</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Arvidsson</t>
+          <t>Pettersson</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1981-05-04</t>
+          <t>1938-08-31</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+46 72-425 25 40</t>
+          <t>+46 72-165 23 80</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>katarina.arvidsson@hotmail.com</t>
+          <t>asa.pettersson@icloud.com</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>No Street No Number</t>
+          <t>Prästhållan No Number</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>82773</t>
+          <t>84292</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Kårböle</t>
+          <t>Sveg</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Ljusdal</t>
+          <t>Härjedalen</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2021-12-21</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>E-Reader</t>
+          <t>MicroSD Card</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.55</v>
+        <v>13606.34</v>
       </c>
       <c r="O30" t="n">
-        <v>1670.55</v>
+        <v>13606.34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Katarina</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Arvidsson</t>
+          <t>Börjesson</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1981-05-04</t>
+          <t>1962-04-19</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+46 72-425 25 40</t>
+          <t>+46 73-292 79 62</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>katarina.arvidsson@hotmail.com</t>
+          <t>anna.borjesson@hotmail.com</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2602,184 +2602,42 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>No Street No Number</t>
+          <t>Göksnäsvägen No Number</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>82773</t>
+          <t>81198</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Kårböle</t>
+          <t>Österfärnebo</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Ljusdal</t>
+          <t>Sandviken</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Office Desk</t>
+          <t>Smart Bulb</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
-        <v>9824.129999999999</v>
+        <v>688.3099999999999</v>
       </c>
       <c r="O31" t="n">
-        <v>49120.64999999999</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Maj</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Ekström</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1978-05-01</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>+46 73-176 88 53</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>maj.ekstrom@hotmail.com</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Åndesta 20</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>73113</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Kolsva</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Köping</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Laptop Stand</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5611</v>
-      </c>
-      <c r="O32" t="n">
-        <v>28055</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Maj</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Ekström</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1978-05-01</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>+46 73-176 88 53</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>maj.ekstrom@hotmail.com</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Åndesta 20</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>73113</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Kolsva</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Köping</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Wireless Mouse</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="n">
-        <v>6513.65</v>
-      </c>
-      <c r="O33" t="n">
-        <v>13027.3</v>
+        <v>2064.93</v>
       </c>
     </row>
   </sheetData>
